--- a/error_threshold/昆头岭金风故障阈值.xlsx
+++ b/error_threshold/昆头岭金风故障阈值.xlsx
@@ -44,6 +44,12 @@
     <t>abnormal_thre_k</t>
   </si>
   <si>
+    <t>发电机轴承温度1</t>
+  </si>
+  <si>
+    <t>发电机轴承温度2</t>
+  </si>
+  <si>
     <t>发电机绕组温度1</t>
   </si>
   <si>
@@ -78,12 +84,6 @@
   </si>
   <si>
     <t>发电机绕组温度12</t>
-  </si>
-  <si>
-    <t>发电机轴承温度1</t>
-  </si>
-  <si>
-    <t>发电机轴承温度2</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1239,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.8318584070796" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1266,13 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1280,13 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1434,16 +1443,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1451,16 +1457,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/error_threshold/昆头岭金风故障阈值.xlsx
+++ b/error_threshold/昆头岭金风故障阈值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="故障阈值" sheetId="1" r:id="rId1"/>
@@ -1239,12 +1239,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.8318584070796" customWidth="1"/>
+    <col min="1" max="1" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1269,11 +1269,9 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="C2">
         <v>75</v>
       </c>
+      <c r="C2"/>
       <c r="D2">
         <v>80</v>
       </c>
@@ -1286,11 +1284,9 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>70</v>
-      </c>
-      <c r="C3">
         <v>75</v>
       </c>
+      <c r="C3"/>
       <c r="D3">
         <v>80</v>
       </c>

--- a/error_threshold/昆头岭金风故障阈值.xlsx
+++ b/error_threshold/昆头岭金风故障阈值.xlsx
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1271,12 +1271,11 @@
       <c r="B2">
         <v>75</v>
       </c>
-      <c r="C2"/>
       <c r="D2">
         <v>80</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1286,12 +1285,11 @@
       <c r="B3">
         <v>75</v>
       </c>
-      <c r="C3"/>
       <c r="D3">
         <v>80</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1305,7 +1303,7 @@
         <v>140</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1319,7 +1317,7 @@
         <v>140</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1333,7 +1331,7 @@
         <v>140</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1347,7 +1345,7 @@
         <v>140</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1361,7 +1359,7 @@
         <v>140</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1375,7 +1373,7 @@
         <v>140</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1389,7 +1387,7 @@
         <v>140</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1403,7 +1401,7 @@
         <v>140</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1417,7 +1415,7 @@
         <v>140</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1431,7 +1429,7 @@
         <v>140</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1445,7 +1443,7 @@
         <v>140</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1459,7 +1457,7 @@
         <v>140</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
